--- a/public/excel/bangdanhmucexport.xlsx
+++ b/public/excel/bangdanhmucexport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmdt\project_tmdt\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B755219-C127-4EB6-B28C-33E9F12128B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3D3F8E-FF22-4E4A-9C0C-F2E76F494BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{24BF3158-3F87-4333-828E-A429CF103BBF}"/>
+    <workbookView xWindow="4905" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{24BF3158-3F87-4333-828E-A429CF103BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>STT</t>
   </si>
   <si>
     <t>Loại sản phẩm</t>
-  </si>
-  <si>
-    <t>Tên hãng sản xuất</t>
   </si>
 </sst>
 </file>
@@ -108,10 +105,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,7 +451,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -469,9 +469,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/excel/bangdanhmucexport.xlsx
+++ b/public/excel/bangdanhmucexport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmdt\project_tmdt\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLUTE\241 - Học kì 1, 2024-2025\TMDT\project_tmdt\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B755219-C127-4EB6-B28C-33E9F12128B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B5DD5B-C44C-4A04-9420-C18FC8F9D489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{24BF3158-3F87-4333-828E-A429CF103BBF}"/>
+    <workbookView xWindow="8730" yWindow="4425" windowWidth="15900" windowHeight="9480" xr2:uid="{24BF3158-3F87-4333-828E-A429CF103BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>STT</t>
   </si>
   <si>
     <t>Loại sản phẩm</t>
-  </si>
-  <si>
-    <t>Tên hãng sản xuất</t>
   </si>
 </sst>
 </file>
@@ -55,7 +52,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,10 +105,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,15 +451,15 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,9 +469,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
